--- a/Doc/Cronograma.xlsx
+++ b/Doc/Cronograma.xlsx
@@ -54,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,10 +135,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -452,7 +452,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,9 +499,7 @@
       <c r="C5" s="9">
         <v>43053</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -511,7 +509,7 @@
         <v>43055</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -521,7 +519,9 @@
       <c r="C7" s="9">
         <v>43060</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3">

--- a/Doc/Cronograma.xlsx
+++ b/Doc/Cronograma.xlsx
@@ -43,10 +43,10 @@
     <t>Practica 1 - ODA1</t>
   </si>
   <si>
-    <t>Avance Proyecto</t>
-  </si>
-  <si>
     <t>Practica 2 - ODA2</t>
+  </si>
+  <si>
+    <t>Avance Proyecto de Investigación</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
         <v>43062</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>43076</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">

--- a/Doc/Cronograma.xlsx
+++ b/Doc/Cronograma.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,9 +508,7 @@
       <c r="C6" s="9">
         <v>43055</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -520,7 +518,7 @@
         <v>43060</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -531,7 +529,7 @@
         <v>43062</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -541,7 +539,9 @@
       <c r="C9" s="9">
         <v>43067</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3">

--- a/Doc/Cronograma.xlsx
+++ b/Doc/Cronograma.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -149,8 +152,36 @@
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -452,18 +483,18 @@
   <dimension ref="B2:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -474,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -483,7 +514,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -492,7 +523,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -501,7 +532,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -510,7 +541,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -521,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -532,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -543,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -552,7 +583,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -563,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -574,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -583,7 +614,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -595,7 +626,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -607,7 +638,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -619,37 +650,37 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F20" s="1"/>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
   </sheetData>
